--- a/biology/Botanique/Nothaphoebe/Nothaphoebe.xlsx
+++ b/biology/Botanique/Nothaphoebe/Nothaphoebe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nothaphoebe est un genre de plantes de la famille des Lauraceae.
 Il contient des espèces éteintes comme Nothaphoebe javanica.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Nothaphoebe est décrit par Carl Ludwig Blume en 1851[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nothaphoebe est décrit par Carl Ludwig Blume en 1851,
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (19 septembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (19 septembre 2020) :
 Nothaphoebe annamensis A. Chev. ex H. Liou
 Nothaphoebe boninensis (Koidz.) Koidz. ex Kamik.
 Nothaphoebe condensata Ridl.
@@ -571,7 +587,7 @@
 Nothaphoebe sarawacensis Gamble
 Nothaphoebe siamensis Kostermans
 Nothaphoebe umbelliflora (Bl.) Bl.
-Selon Plants of the World online (POWO)                (19 septembre 2020)[4] :
+Selon Plants of the World online (POWO)                (19 septembre 2020) :
 Nothaphoebe annamensis A.Chev. ex H.Liu
 Nothaphoebe condensa Ridl.
 Nothaphoebe coriacea (Kosterm.) Kosterm.
@@ -592,7 +608,7 @@
 Nothaphoebe poilanei H.Liu
 Nothaphoebe siamensis Kosterm.
 Nothaphoebe umbelliflora (Blume) Blume
-Selon The Plant List            (19 septembre 2020)[5] :
+Selon The Plant List            (19 septembre 2020) :
 Nothaphoebe boninensis (Koidz.) Koidz. ex Kamik.
 Nothaphoebe cavaleriei (H. Lév.) Yen C. Yang
 Nothaphoebe crassifolia (Ridl.) Kosterm.
@@ -605,7 +621,7 @@
 Nothaphoebe leytensis (Elmer) Merr.
 Nothaphoebe magnifica (Kosterm.) Kosterm.
 Nothaphoebe umbelliflora (Blume) Blume
-Selon Tropicos                                           (19 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Nothaphoebe angustifolia Ridl.
 Nothaphoebe annamensis H. Liu
 Nothaphoebe archboldiana C.K. Allen
